--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -98,6 +98,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">テストデータ登録</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -118,6 +121,36 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">ログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一覧表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">条件検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製品マスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入出庫</t>
+  </si>
+  <si>
     <t xml:space="preserve">テスト</t>
   </si>
   <si>
@@ -135,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\(AAA\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -166,14 +199,8 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="游明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,20 +215,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF99CC"/>
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,49 +260,73 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,14 +376,14 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -367,9 +412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>435600</xdr:colOff>
+      <xdr:colOff>434880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -378,8 +423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1603800" y="153000"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="1605240" y="153000"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,9 +456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
+      <xdr:colOff>441000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -422,8 +467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609920" y="334800"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="1611360" y="334800"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,9 +500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
+      <xdr:colOff>441000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -466,8 +511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609920" y="497520"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="1611360" y="497520"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,9 +544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
+      <xdr:colOff>441000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -510,8 +555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609920" y="660240"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="1611360" y="660240"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,9 +588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -554,8 +599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1599840" y="985680"/>
-          <a:ext cx="1365120" cy="124200"/>
+          <a:off x="1601280" y="985680"/>
+          <a:ext cx="1364400" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,16 +625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>391320</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -598,8 +643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1559520" y="1300680"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="2113920" y="1453680"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,14 +671,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>424800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>424080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -642,8 +687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2546640" y="1463400"/>
-          <a:ext cx="4051080" cy="124200"/>
+          <a:off x="2548080" y="1626120"/>
+          <a:ext cx="4050000" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,14 +715,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>434880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:colOff>434160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -686,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5727240" y="1625760"/>
-          <a:ext cx="880560" cy="124200"/>
+          <a:off x="5728320" y="4064040"/>
+          <a:ext cx="879840" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,14 +759,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>395280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>394560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -730,8 +775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="1951200"/>
-          <a:ext cx="386280" cy="124200"/>
+          <a:off x="7545240" y="4389480"/>
+          <a:ext cx="385560" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,9 +808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>375120</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -774,8 +819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2548080" y="1166760"/>
-          <a:ext cx="821880" cy="124200"/>
+          <a:off x="2549520" y="1166760"/>
+          <a:ext cx="820800" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,8 +853,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>197640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -818,8 +863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2284200" y="172080"/>
-          <a:ext cx="0" cy="2820960"/>
+          <a:off x="2285640" y="172080"/>
+          <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -827,6 +872,50 @@
         <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="シェイプ 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1560240" y="1300680"/>
+          <a:ext cx="932400" cy="133560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -847,169 +936,278 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="6.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="5" t="n">
         <v>45308</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="5" t="n">
         <v>45309</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="5" t="n">
         <v>45310</v>
       </c>
-      <c r="G1" s="5" t="n">
+      <c r="G1" s="6" t="n">
         <v>45311</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="H1" s="6" t="n">
         <v>45312</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="5" t="n">
         <v>45313</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="5" t="n">
         <v>45314</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="5" t="n">
         <v>45315</v>
       </c>
-      <c r="L1" s="4" t="n">
+      <c r="L1" s="5" t="n">
         <v>45316</v>
       </c>
-      <c r="M1" s="4" t="n">
+      <c r="M1" s="5" t="n">
         <v>45317</v>
       </c>
-      <c r="N1" s="5" t="n">
+      <c r="N1" s="6" t="n">
         <v>45318</v>
       </c>
-      <c r="O1" s="5" t="n">
+      <c r="O1" s="6" t="n">
         <v>45319</v>
       </c>
-      <c r="P1" s="4" t="n">
+      <c r="P1" s="5" t="n">
         <v>45320</v>
       </c>
-      <c r="Q1" s="6" t="n">
+      <c r="Q1" s="7" t="n">
         <v>45321</v>
       </c>
-      <c r="R1" s="5" t="n">
+      <c r="R1" s="6" t="n">
         <v>45322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="n">
+    </row>
+    <row r="27" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="n">
         <v>6</v>
       </c>
     </row>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -260,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,18 +310,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -412,9 +400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>434880</xdr:colOff>
+      <xdr:colOff>434520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -424,7 +412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,9 +444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441000</xdr:colOff>
+      <xdr:colOff>440640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -468,7 +456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,9 +488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441000</xdr:colOff>
+      <xdr:colOff>440640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -512,7 +500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,9 +532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441000</xdr:colOff>
+      <xdr:colOff>440640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -556,7 +544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,9 +576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>423720</xdr:colOff>
+      <xdr:colOff>423360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -600,13 +588,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1364400" cy="123480"/>
+          <a:ext cx="1364040" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -632,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>411120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -644,13 +632,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -676,9 +664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -688,7 +676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4050000" cy="123480"/>
+          <a:ext cx="4049640" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -732,7 +720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5728320" y="4064040"/>
-          <a:ext cx="879840" cy="123480"/>
+          <a:ext cx="879480" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -776,7 +764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7545240" y="4389480"/>
-          <a:ext cx="385560" cy="123480"/>
+          <a:ext cx="385200" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,9 +796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374400</xdr:colOff>
+      <xdr:colOff>374040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -820,7 +808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="820800" cy="123480"/>
+          <a:ext cx="820440" cy="123120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,16 +833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>227520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -863,7 +851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2285640" y="172080"/>
+          <a:off x="2769480" y="153000"/>
           <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -893,9 +881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
+      <xdr:colOff>404280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,13 +893,57 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="932400" cy="133560"/>
+          <a:ext cx="932040" cy="133200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="シェイプ 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565720" y="2285640"/>
+          <a:ext cx="385200" cy="123120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -939,7 +971,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1084,11 +1116,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G11" s="2"/>
@@ -1099,16 +1131,16 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1160,8 +1192,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="2"/>
@@ -1207,7 +1239,7 @@
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="8" t="n">
         <v>6</v>
       </c>
     </row>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -400,9 +400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>434160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -412,7 +412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,9 +444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
+      <xdr:colOff>440280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -456,7 +456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,9 +488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
+      <xdr:colOff>440280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -500,7 +500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -532,9 +532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
+      <xdr:colOff>440280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -544,7 +544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,9 +576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>423360</xdr:colOff>
+      <xdr:colOff>423000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -588,7 +588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1364040" cy="123120"/>
+          <a:ext cx="1363680" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -632,7 +632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,9 +664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>423720</xdr:colOff>
+      <xdr:colOff>423360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -676,7 +676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4049640" cy="123120"/>
+          <a:ext cx="4049280" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>433800</xdr:colOff>
+      <xdr:colOff>433440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,7 +720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5728320" y="4064040"/>
-          <a:ext cx="879480" cy="123120"/>
+          <a:ext cx="879120" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>394200</xdr:colOff>
+      <xdr:colOff>393840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -764,7 +764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7545240" y="4389480"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,9 +796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>374040</xdr:colOff>
+      <xdr:colOff>373680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -808,7 +808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="820440" cy="123120"/>
+          <a:ext cx="820080" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,13 +833,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>227520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>227520</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133920</xdr:rowOff>
@@ -851,7 +851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2769480" y="153000"/>
+          <a:off x="3223440" y="153000"/>
           <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -881,9 +881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
+      <xdr:colOff>403920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -893,7 +893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="932040" cy="133200"/>
+          <a:ext cx="931680" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,9 +925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -937,7 +937,95 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565720" y="2285640"/>
-          <a:ext cx="385200" cy="123120"/>
+          <a:ext cx="384840" cy="122760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="シェイプ 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3021480" y="2457360"/>
+          <a:ext cx="384840" cy="122760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="シェイプ 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3001320" y="2764080"/>
+          <a:ext cx="384840" cy="122760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +1059,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -200,7 +200,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +211,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -260,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,7 +283,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,6 +303,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +316,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +381,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -400,9 +418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
+      <xdr:colOff>433440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -412,7 +430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,9 +462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440280</xdr:colOff>
+      <xdr:colOff>439560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -456,7 +474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,9 +506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440280</xdr:colOff>
+      <xdr:colOff>439560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -500,7 +518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -532,9 +550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>440280</xdr:colOff>
+      <xdr:colOff>439560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -544,7 +562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,9 +594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>423000</xdr:colOff>
+      <xdr:colOff>422280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -588,7 +606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1363680" cy="122760"/>
+          <a:ext cx="1362960" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,9 +638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>410040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -632,7 +650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>423360</xdr:colOff>
+      <xdr:colOff>422640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -676,7 +694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4049280" cy="122760"/>
+          <a:ext cx="4048560" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,7 +738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5728320" y="4064040"/>
-          <a:ext cx="879120" cy="122760"/>
+          <a:ext cx="878400" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,9 +770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>393840</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -764,7 +782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7545240" y="4389480"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,9 +814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>373680</xdr:colOff>
+      <xdr:colOff>372960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -808,7 +826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="820080" cy="122760"/>
+          <a:ext cx="819360" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,14 +851,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236880</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
@@ -851,7 +869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3223440" y="153000"/>
+          <a:off x="5502960" y="153000"/>
           <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -881,9 +899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>403920</xdr:colOff>
+      <xdr:colOff>403200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -893,7 +911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="931680" cy="132840"/>
+          <a:ext cx="930960" cy="132120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,9 +943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -937,7 +955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565720" y="2285640"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,9 +987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>410400</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -981,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3021480" y="2457360"/>
-          <a:ext cx="384840" cy="122760"/>
+          <a:ext cx="384120" cy="122040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,32 +1024,164 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="シェイプ 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827240" y="2935440"/>
+          <a:ext cx="384120" cy="122040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="シェイプ 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827240" y="3098160"/>
+          <a:ext cx="384120" cy="122040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>389160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="シェイプ 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000960" y="2763720"/>
+          <a:ext cx="384120" cy="122040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>390240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="シェイプ 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3001320" y="2764080"/>
-          <a:ext cx="384840" cy="122760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffff00"/>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="シェイプ 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5272200" y="3251520"/>
+          <a:ext cx="384120" cy="122040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -1059,7 +1209,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1068,66 +1218,67 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="3" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="6.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="E1" s="5" t="n">
+      <c r="E1" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="F1" s="5" t="n">
+      <c r="F1" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="G1" s="6" t="n">
+      <c r="G1" s="7" t="n">
         <v>45311</v>
       </c>
-      <c r="H1" s="6" t="n">
+      <c r="H1" s="7" t="n">
         <v>45312</v>
       </c>
-      <c r="I1" s="5" t="n">
+      <c r="I1" s="8" t="n">
         <v>45313</v>
       </c>
-      <c r="J1" s="5" t="n">
+      <c r="J1" s="8" t="n">
         <v>45314</v>
       </c>
-      <c r="K1" s="5" t="n">
+      <c r="K1" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="L1" s="5" t="n">
+      <c r="L1" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="M1" s="5" t="n">
+      <c r="M1" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="N1" s="6" t="n">
+      <c r="N1" s="7" t="n">
         <v>45318</v>
       </c>
-      <c r="O1" s="6" t="n">
+      <c r="O1" s="7" t="n">
         <v>45319</v>
       </c>
-      <c r="P1" s="5" t="n">
+      <c r="P1" s="6" t="n">
         <v>45320</v>
       </c>
-      <c r="Q1" s="7" t="n">
+      <c r="Q1" s="9" t="n">
         <v>45321</v>
       </c>
-      <c r="R1" s="6" t="n">
+      <c r="R1" s="7" t="n">
         <v>45322</v>
       </c>
     </row>
@@ -1135,22 +1286,22 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1167,22 +1318,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="15" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1195,17 +1348,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -1213,96 +1366,104 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1312,22 +1473,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="10" t="n">
         <v>6</v>
       </c>
     </row>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">製品マスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一覧表示に在庫数を反映</t>
   </si>
   <si>
     <t xml:space="preserve">登録</t>
@@ -200,7 +203,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +234,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -266,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +322,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,8 +350,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -382,7 +413,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF6D"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -393,7 +424,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -418,9 +449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>433080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -430,7 +461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,9 +493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439560</xdr:colOff>
+      <xdr:colOff>439200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -474,7 +505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,9 +537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439560</xdr:colOff>
+      <xdr:colOff>439200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -518,7 +549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,9 +581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439560</xdr:colOff>
+      <xdr:colOff>439200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -562,7 +593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,9 +625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422280</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -606,7 +637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1362960" cy="122040"/>
+          <a:ext cx="1362600" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,9 +669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -650,7 +681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,9 +713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>422280</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -694,7 +725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4048560" cy="122040"/>
+          <a:ext cx="4048200" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -721,14 +752,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:colOff>432360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -737,8 +768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5728320" y="4064040"/>
-          <a:ext cx="878400" cy="122040"/>
+          <a:off x="5728320" y="4226400"/>
+          <a:ext cx="878040" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,14 +796,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:colOff>392760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -781,8 +812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7545240" y="4389480"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:off x="7545240" y="4552200"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,9 +845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>372960</xdr:colOff>
+      <xdr:colOff>372600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -826,7 +857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="819360" cy="122040"/>
+          <a:ext cx="819000" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>403200</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -911,7 +942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="930960" cy="132120"/>
+          <a:ext cx="930600" cy="131760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,9 +974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -955,13 +986,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565720" y="2285640"/>
-          <a:ext cx="384120" cy="122040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -987,9 +1018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -999,57 +1030,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3021480" y="2457360"/>
-          <a:ext cx="384120" cy="122040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="シェイプ 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4827240" y="2935440"/>
-          <a:ext cx="384120" cy="122040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -1075,9 +1062,53 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="シェイプ 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827240" y="3098160"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1086,14 +1117,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4827240" y="3098160"/>
-          <a:ext cx="384120" cy="122040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:off x="4827240" y="3260520"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -1118,10 +1149,10 @@
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>389160</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1131,7 +1162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3000960" y="2763720"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:ext cx="2679480" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,14 +1189,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:colOff>389880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1174,8 +1205,140 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5272200" y="3251520"/>
-          <a:ext cx="384120" cy="122040"/>
+          <a:off x="5272200" y="3414240"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="シェイプ 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5320440" y="1807200"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="シェイプ 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310360" y="1960200"/>
+          <a:ext cx="383760" cy="121680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="シェイプ 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5271840" y="2926080"/>
+          <a:ext cx="383760" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,10 +1369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1283,7 +1446,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
@@ -1304,38 +1467,38 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1348,17 +1511,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -1374,17 +1537,17 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
@@ -1397,17 +1560,17 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2"/>
@@ -1420,77 +1583,82 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    </row>
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="n">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+    <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="n">
         <v>6</v>
       </c>
     </row>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">入出庫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在庫の加減算</t>
   </si>
   <si>
     <t xml:space="preserve">テスト</t>
@@ -281,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,10 +358,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,9 +448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433080</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -461,7 +460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,9 +492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439200</xdr:colOff>
+      <xdr:colOff>438840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -505,7 +504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,9 +536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439200</xdr:colOff>
+      <xdr:colOff>438840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -549,7 +548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,9 +580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439200</xdr:colOff>
+      <xdr:colOff>438840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -593,7 +592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,9 +624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
+      <xdr:colOff>421560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -637,7 +636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1362600" cy="121680"/>
+          <a:ext cx="1362240" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,9 +668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -681,7 +680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,9 +712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>422280</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -725,7 +724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4048200" cy="121680"/>
+          <a:ext cx="4047840" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,10 +755,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -769,7 +768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5728320" y="4226400"/>
-          <a:ext cx="878040" cy="121680"/>
+          <a:ext cx="1768680" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,9 +800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>392400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -813,7 +812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7545240" y="4552200"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,9 +844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>372600</xdr:colOff>
+      <xdr:colOff>372240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -857,7 +856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="819000" cy="121680"/>
+          <a:ext cx="818640" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,14 +881,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
@@ -900,7 +899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5502960" y="153000"/>
+          <a:off x="5937120" y="153000"/>
           <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -930,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>402840</xdr:colOff>
+      <xdr:colOff>402480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -942,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="930600" cy="131760"/>
+          <a:ext cx="930240" cy="131400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,9 +973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>407160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -986,7 +985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565720" y="2285640"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,9 +1017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1030,7 +1029,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3021480" y="2457360"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,9 +1061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1074,7 +1073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4827240" y="3098160"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1106,9 +1105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1118,7 +1117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4827240" y="3260520"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,9 +1149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>414000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1162,7 +1161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3000960" y="2763720"/>
-          <a:ext cx="2679480" cy="121680"/>
+          <a:ext cx="2679120" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1194,9 +1193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1206,7 +1205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5272200" y="3414240"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1238,9 +1237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1250,7 +1249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5320440" y="1807200"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1282,9 +1281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1294,7 +1293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5310360" y="1960200"/>
-          <a:ext cx="383760" cy="121680"/>
+          <a:ext cx="383400" cy="121320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,25 +1325,201 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>389160</xdr:colOff>
       <xdr:row>18</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="シェイプ 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5271840" y="2926080"/>
+          <a:ext cx="383400" cy="121320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="シェイプ 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755680" y="3940200"/>
+          <a:ext cx="383400" cy="121320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="シェイプ 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5746320" y="3748680"/>
+          <a:ext cx="383400" cy="121320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="シェイプ 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5766120" y="4083120"/>
+          <a:ext cx="383400" cy="121320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="シェイプ 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5271840" y="2926080"/>
-          <a:ext cx="383760" cy="121680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+        <xdr:cNvPr id="24" name="シェイプ 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5272200" y="3576600"/>
+          <a:ext cx="1316160" cy="121320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00a933"/>
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
@@ -1372,7 +1547,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
+      <selection pane="topLeft" activeCell="U29" activeCellId="0" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1621,21 +1796,23 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>12</v>
@@ -1643,7 +1820,7 @@
     </row>
     <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1656,7 +1833,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="n">
         <v>6</v>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">在庫の加減算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入力チェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メッセージ表示</t>
   </si>
   <si>
     <t xml:space="preserve">テスト</t>
@@ -206,7 +212,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,13 +246,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,8 +379,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -418,7 +448,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -448,9 +478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -460,7 +490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1605240" y="153000"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,9 +522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -504,7 +534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="334800"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,9 +566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -548,7 +578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="497520"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,9 +610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -592,7 +622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1611360" y="660240"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,9 +654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421560</xdr:colOff>
+      <xdr:colOff>421200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -636,7 +666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1601280" y="985680"/>
-          <a:ext cx="1362240" cy="121320"/>
+          <a:ext cx="1361880" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -680,7 +710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2113920" y="1453680"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,9 +742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
+      <xdr:colOff>421560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -724,7 +754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2548080" y="1626120"/>
-          <a:ext cx="4047840" cy="121320"/>
+          <a:ext cx="4047480" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,14 +781,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>414720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -767,8 +797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5728320" y="4226400"/>
-          <a:ext cx="1768680" cy="121320"/>
+          <a:off x="5728320" y="4551840"/>
+          <a:ext cx="1768320" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,14 +825,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>392400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:colOff>392040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -811,8 +841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7545240" y="4552200"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:off x="7545240" y="4877280"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,9 +874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
+      <xdr:colOff>371880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -856,7 +886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2549520" y="1166760"/>
-          <a:ext cx="818640" cy="121320"/>
+          <a:ext cx="818280" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,16 +911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -899,7 +929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5937120" y="153000"/>
+          <a:off x="6371280" y="114480"/>
           <a:ext cx="0" cy="4695120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -929,9 +959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
+      <xdr:colOff>402120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -941,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1560240" y="1300680"/>
-          <a:ext cx="930240" cy="131400"/>
+          <a:ext cx="929880" cy="131040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -985,7 +1015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565720" y="2285640"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,9 +1047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1029,7 +1059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3021480" y="2457360"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,9 +1091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398520</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1073,7 +1103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4827240" y="3098160"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1105,9 +1135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398520</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1117,7 +1147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4827240" y="3260520"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,9 +1179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>414000</xdr:colOff>
+      <xdr:colOff>413640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1161,7 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3000960" y="2763720"/>
-          <a:ext cx="2679120" cy="121320"/>
+          <a:ext cx="2678760" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,9 +1223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>389160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1205,7 +1235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5272200" y="3414240"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,9 +1267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1249,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5320440" y="1807200"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,9 +1311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1293,7 +1323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5310360" y="1960200"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,9 +1355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>389160</xdr:colOff>
+      <xdr:colOff>388800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1337,7 +1367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5271840" y="2926080"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,9 +1399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
+      <xdr:colOff>418680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1381,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5755680" y="3940200"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1425,7 +1455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5746320" y="3748680"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,9 +1487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
+      <xdr:colOff>429120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1469,7 +1499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5766120" y="4083120"/>
-          <a:ext cx="383400" cy="121320"/>
+          <a:ext cx="383040" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,7 +1509,7 @@
         </a:solidFill>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="00a933"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1501,9 +1531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>414000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1513,7 +1543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5272200" y="3576600"/>
-          <a:ext cx="1316160" cy="121320"/>
+          <a:ext cx="1315800" cy="120960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1544,10 +1574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U29" activeCellId="0" sqref="U29"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1763,7 +1793,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1783,7 +1813,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="2"/>
@@ -1806,36 +1836,46 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="n">
+    <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="n">
         <v>6</v>
       </c>
     </row>

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javaシステム科\88_WorkProduct\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12E6867-BE7C-4A5E-9875-57044B33D7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
+    <t>step</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
   <si>
     <r>
@@ -35,7 +40,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">~16(</t>
+      <t>~16(</t>
     </r>
     <r>
       <rPr>
@@ -44,7 +49,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">火</t>
+      <t>火</t>
     </r>
     <r>
       <rPr>
@@ -53,29 +58,29 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">スケジュール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">企画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要件定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本設計</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詳細設計</t>
+    <t>スケジュール</t>
+  </si>
+  <si>
+    <t>企画</t>
+  </si>
+  <si>
+    <t>要件定義</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>画面作成</t>
+  </si>
+  <si>
+    <t>モック</t>
+  </si>
+  <si>
+    <t>詳細設計</t>
   </si>
   <si>
     <r>
@@ -85,7 +90,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">DB</t>
+      <t>DB</t>
     </r>
     <r>
       <rPr>
@@ -94,11 +99,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">構築</t>
+      <t>構築</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">テストデータ登録</t>
+    <t>テストデータ登録</t>
   </si>
   <si>
     <r>
@@ -108,7 +113,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Java</t>
+      <t>Java</t>
     </r>
     <r>
       <rPr>
@@ -117,70 +122,69 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">プログラム</t>
+      <t>プログラム</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ログイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログアウト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一覧表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">条件検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">製品マスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一覧表示に在庫数を反映</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入出庫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在庫の加減算</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入力チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メッセージ表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プレゼン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料作成</t>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>一覧表示</t>
+  </si>
+  <si>
+    <t>画面表示</t>
+  </si>
+  <si>
+    <t>条件検索</t>
+  </si>
+  <si>
+    <t>製品マスター</t>
+  </si>
+  <si>
+    <t>一覧表示に在庫数を反映</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>入出庫</t>
+  </si>
+  <si>
+    <t>在庫の加減算</t>
+  </si>
+  <si>
+    <t>入力チェック</t>
+  </si>
+  <si>
+    <t>メッセージ表示</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>プレゼン</t>
+  </si>
+  <si>
+    <t>資料作成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\(AAA\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="d\(aaa\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -190,29 +194,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,31 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
+        <fgColor theme="9"/>
         <bgColor rgb="FF77BC65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -277,133 +275,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -462,13 +380,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -482,9 +416,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="シェイプ 1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="シェイプ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -496,18 +436,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -526,9 +472,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="シェイプ 2"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="シェイプ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -540,18 +492,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -570,9 +528,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="シェイプ 3"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="シェイプ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -584,18 +548,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -614,9 +584,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="シェイプ 4"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="シェイプ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -628,18 +604,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -658,9 +640,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="シェイプ 5"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="シェイプ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -672,18 +660,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -702,9 +696,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="シェイプ 6"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="シェイプ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -716,18 +716,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -746,9 +752,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="シェイプ 7"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="シェイプ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -760,18 +772,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -790,9 +808,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="シェイプ 8"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="シェイプ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -804,18 +828,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -834,9 +864,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="シェイプ 9"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="シェイプ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -848,18 +884,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -878,9 +920,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="シェイプ 10"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="シェイプ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -892,18 +940,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -911,40 +965,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206805</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206805</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="垂直線 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6371280" y="114480"/>
-          <a:ext cx="0" cy="4695120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="垂直線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6474255" y="114480"/>
+          <a:ext cx="0" cy="6057870"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -963,9 +1029,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="シェイプ 11"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="シェイプ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -977,18 +1049,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1007,9 +1085,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="シェイプ 12"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="シェイプ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1021,18 +1105,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1051,9 +1141,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="シェイプ 13"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="シェイプ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1065,18 +1161,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1095,9 +1197,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="シェイプ 14"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="シェイプ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1109,18 +1217,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1139,9 +1253,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="シェイプ 16"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="シェイプ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1153,18 +1273,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1183,9 +1309,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="シェイプ 17"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="シェイプ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1197,18 +1329,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1227,9 +1365,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="シェイプ 15"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="シェイプ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1241,18 +1385,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1271,9 +1421,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="シェイプ 18"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="シェイプ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1285,18 +1441,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1315,9 +1477,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="シェイプ 19"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="シェイプ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1329,18 +1497,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1359,9 +1533,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="シェイプ 20"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="シェイプ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1373,18 +1553,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1403,9 +1589,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="シェイプ 21"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="シェイプ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1417,18 +1609,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1447,9 +1645,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="シェイプ 22"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="シェイプ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1461,18 +1665,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1491,9 +1701,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="シェイプ 23"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="シェイプ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1505,18 +1721,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="00a933"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="00A933"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1535,9 +1757,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="シェイプ 24"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="シェイプ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1549,18 +1777,24 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00a933"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+          <a:srgbClr val="00A933"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1569,321 +1803,565 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="3" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="6.44"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="8" width="6.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>45308</v>
       </c>
-      <c r="E1" s="6" t="n">
+      <c r="E1" s="5">
         <v>45309</v>
       </c>
-      <c r="F1" s="6" t="n">
+      <c r="F1" s="5">
         <v>45310</v>
       </c>
-      <c r="G1" s="7" t="n">
+      <c r="G1" s="6">
         <v>45311</v>
       </c>
-      <c r="H1" s="7" t="n">
+      <c r="H1" s="6">
         <v>45312</v>
       </c>
-      <c r="I1" s="8" t="n">
+      <c r="I1" s="7">
         <v>45313</v>
       </c>
-      <c r="J1" s="8" t="n">
+      <c r="J1" s="7">
         <v>45314</v>
       </c>
-      <c r="K1" s="6" t="n">
+      <c r="K1" s="5">
         <v>45315</v>
       </c>
-      <c r="L1" s="6" t="n">
+      <c r="L1" s="5">
         <v>45316</v>
       </c>
-      <c r="M1" s="6" t="n">
+      <c r="M1" s="5">
         <v>45317</v>
       </c>
-      <c r="N1" s="7" t="n">
+      <c r="N1" s="6">
         <v>45318</v>
       </c>
-      <c r="O1" s="7" t="n">
+      <c r="O1" s="6">
         <v>45319</v>
       </c>
-      <c r="P1" s="6" t="n">
+      <c r="P1" s="5">
         <v>45320</v>
       </c>
-      <c r="Q1" s="9" t="n">
+      <c r="Q1" s="8">
         <v>45321</v>
       </c>
-      <c r="R1" s="7" t="n">
+      <c r="R1" s="6">
         <v>45322</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11">
         <v>42</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
